--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3076865.480595693</v>
+        <v>3073994.143869014</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13.35464426286299</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>6.478598521151547</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>13.35464426286299</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>15.16194852731947</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
     </row>
     <row r="4">
@@ -823,55 +823,55 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>13.58434214447045</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14.93225064571201</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -914,49 +914,49 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,70 +975,70 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="D6" t="n">
+      <c r="S6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="E6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="F6" t="n">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>13.35464426286299</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,55 +1057,55 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.35464426286299</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="E7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="F7" t="n">
-        <v>13.58434214447045</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>14.93225064571201</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>104.0154267588391</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.61142920764741</v>
+        <v>104.0154267588391</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.62747247092912</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>84.74074214747405</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>104.0154267588391</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50184046889753</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>104.0154267588391</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>104.0154267588391</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>43.97281151398492</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>47.64397637520057</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>104.0154267588391</v>
       </c>
       <c r="V9" t="n">
-        <v>91.61678788918547</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>104.0154267588391</v>
       </c>
       <c r="Y9" t="n">
-        <v>104.0154267588391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>68.98239880211125</v>
       </c>
       <c r="C10" t="n">
-        <v>104.0154267588391</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>29.2606702583677</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>104.0154267588391</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.72172854374357</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>104.0154267588391</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>104.0154267588391</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>130.3963959210122</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471638</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695541</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>164.9367233701382</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811875</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2561,16 +2561,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722644</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S28" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874306</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695541</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>103.878467376339</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>190.3063245427907</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>78.89395497654149</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>104.1233804225864</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>39.5212963318317</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="C2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="D2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="E2" t="n">
-        <v>30.01759506418804</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="F2" t="n">
         <v>16.52805540473048</v>
@@ -4331,16 +4331,16 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K2" t="n">
-        <v>16.22328492423183</v>
+        <v>10.45600866564848</v>
       </c>
       <c r="L2" t="n">
-        <v>31.23361396627811</v>
+        <v>10.45600866564848</v>
       </c>
       <c r="M2" t="n">
-        <v>40.47666674974103</v>
+        <v>10.45600866564848</v>
       </c>
       <c r="N2" t="n">
-        <v>40.47666674974103</v>
+        <v>25.46633770769475</v>
       </c>
       <c r="O2" t="n">
         <v>40.47666674974103</v>
@@ -4352,7 +4352,7 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R2" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="S2" t="n">
         <v>45.33269458673296</v>
@@ -4361,19 +4361,19 @@
         <v>45.33269458673296</v>
       </c>
       <c r="U2" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647888</v>
       </c>
       <c r="V2" t="n">
-        <v>45.33269458673296</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="W2" t="n">
-        <v>45.33269458673296</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="X2" t="n">
-        <v>45.33269458673296</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.33269458673296</v>
+        <v>23.47355615393395</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.01759506418804</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="C3" t="n">
-        <v>30.01759506418804</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="D3" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E3" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F3" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I3" t="n">
         <v>1.212955882185558</v>
@@ -4410,19 +4410,19 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K3" t="n">
-        <v>16.22328492423183</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="L3" t="n">
         <v>16.22328492423183</v>
       </c>
       <c r="M3" t="n">
-        <v>31.23361396627811</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="N3" t="n">
-        <v>45.6374650672316</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="O3" t="n">
-        <v>45.6374650672316</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="P3" t="n">
         <v>45.6374650672316</v>
@@ -4431,28 +4431,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R3" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="S3" t="n">
         <v>45.33269458673296</v>
       </c>
-      <c r="S3" t="n">
-        <v>30.01759506418804</v>
-      </c>
       <c r="T3" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U3" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V3" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W3" t="n">
-        <v>30.01759506418804</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="X3" t="n">
-        <v>30.01759506418804</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.01759506418804</v>
+        <v>16.52805540473048</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C4" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D4" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E4" t="n">
-        <v>31.61113686504564</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="J4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K4" t="n">
         <v>1.212955882185558</v>
@@ -4495,19 +4495,19 @@
         <v>16.22328492423183</v>
       </c>
       <c r="M4" t="n">
-        <v>31.23361396627811</v>
+        <v>25.75966359751175</v>
       </c>
       <c r="N4" t="n">
-        <v>46.24394300832439</v>
+        <v>40.76999263955803</v>
       </c>
       <c r="O4" t="n">
-        <v>55.7803216816043</v>
+        <v>55.78032168160431</v>
       </c>
       <c r="P4" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="Q4" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="R4" t="n">
         <v>45.33269458673296</v>
@@ -4516,22 +4516,22 @@
         <v>45.33269458673296</v>
       </c>
       <c r="T4" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="U4" t="n">
-        <v>45.33269458673296</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="V4" t="n">
-        <v>45.33269458673296</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="W4" t="n">
-        <v>45.33269458673296</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="X4" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="C5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="D5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="E5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="F5" t="n">
-        <v>31.8431549272754</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="G5" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H5" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I5" t="n">
         <v>1.212955882185558</v>
@@ -4571,31 +4571,31 @@
         <v>1.212955882185558</v>
       </c>
       <c r="L5" t="n">
-        <v>10.45600866564848</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M5" t="n">
-        <v>25.46633770769475</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="N5" t="n">
-        <v>40.47666674974103</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="O5" t="n">
-        <v>40.47666674974103</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="P5" t="n">
-        <v>55.48699579178731</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="Q5" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="R5" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="S5" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="T5" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="U5" t="n">
         <v>45.33269458673296</v>
@@ -4604,13 +4604,13 @@
         <v>45.33269458673296</v>
       </c>
       <c r="W5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="X5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="Y5" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.64779410927788</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C6" t="n">
-        <v>45.33269458673296</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D6" t="n">
-        <v>30.01759506418804</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E6" t="n">
-        <v>14.70249554164312</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F6" t="n">
         <v>1.212955882185558</v>
@@ -4647,49 +4647,49 @@
         <v>7.519576199182469</v>
       </c>
       <c r="K6" t="n">
-        <v>22.52990524122875</v>
+        <v>7.519576199182469</v>
       </c>
       <c r="L6" t="n">
         <v>22.52990524122875</v>
       </c>
       <c r="M6" t="n">
-        <v>37.54023428327503</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="N6" t="n">
-        <v>52.55056332532131</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="O6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="P6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="Q6" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="R6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S6" t="n">
-        <v>60.64779410927788</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="T6" t="n">
-        <v>60.64779410927788</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="U6" t="n">
-        <v>60.64779410927788</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="V6" t="n">
-        <v>60.64779410927788</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="W6" t="n">
-        <v>60.64779410927788</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="X6" t="n">
-        <v>60.64779410927788</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="Y6" t="n">
-        <v>60.64779410927788</v>
+        <v>1.212955882185558</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.64779410927788</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="C7" t="n">
-        <v>60.64779410927788</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="D7" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="E7" t="n">
-        <v>30.01759506418804</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="F7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="J7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K7" t="n">
         <v>1.212955882185558</v>
@@ -4732,10 +4732,10 @@
         <v>16.22328492423183</v>
       </c>
       <c r="M7" t="n">
-        <v>31.23361396627811</v>
+        <v>25.75966359751175</v>
       </c>
       <c r="N7" t="n">
-        <v>46.24394300832439</v>
+        <v>40.76999263955803</v>
       </c>
       <c r="O7" t="n">
         <v>55.7803216816043</v>
@@ -4744,31 +4744,31 @@
         <v>60.64779410927788</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="R7" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S7" t="n">
-        <v>60.64779410927788</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="T7" t="n">
-        <v>60.64779410927788</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="U7" t="n">
-        <v>60.64779410927788</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="V7" t="n">
-        <v>60.64779410927788</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="W7" t="n">
-        <v>60.64779410927788</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="X7" t="n">
-        <v>60.64779410927788</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.64779410927788</v>
+        <v>14.70249554164312</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>134.0817409166647</v>
+        <v>120.3328225251016</v>
       </c>
       <c r="C8" t="n">
-        <v>134.0817409166647</v>
+        <v>120.3328225251016</v>
       </c>
       <c r="D8" t="n">
-        <v>134.0817409166647</v>
+        <v>120.3328225251016</v>
       </c>
       <c r="E8" t="n">
-        <v>29.01565328147364</v>
+        <v>120.3328225251016</v>
       </c>
       <c r="F8" t="n">
-        <v>22.07015253227017</v>
+        <v>113.3873217758982</v>
       </c>
       <c r="G8" t="n">
         <v>8.32123414070713</v>
@@ -4808,46 +4808,46 @@
         <v>8.32123414070713</v>
       </c>
       <c r="L8" t="n">
-        <v>111.2965066319579</v>
+        <v>77.96579297251141</v>
       </c>
       <c r="M8" t="n">
-        <v>177.2628861856258</v>
+        <v>143.9321725261793</v>
       </c>
       <c r="N8" t="n">
-        <v>280.2381586768765</v>
+        <v>246.90744501743</v>
       </c>
       <c r="O8" t="n">
-        <v>334.5576877366829</v>
+        <v>301.2269740772364</v>
       </c>
       <c r="P8" t="n">
-        <v>346.4171482035521</v>
+        <v>313.0864345441057</v>
       </c>
       <c r="Q8" t="n">
         <v>416.0617070353564</v>
       </c>
       <c r="R8" t="n">
-        <v>371.993553024317</v>
+        <v>416.0617070353564</v>
       </c>
       <c r="S8" t="n">
-        <v>371.993553024317</v>
+        <v>330.4649977954837</v>
       </c>
       <c r="T8" t="n">
-        <v>371.993553024317</v>
+        <v>225.3989101602926</v>
       </c>
       <c r="U8" t="n">
-        <v>344.2139161870467</v>
+        <v>225.3989101602926</v>
       </c>
       <c r="V8" t="n">
-        <v>239.1478285518557</v>
+        <v>225.3989101602926</v>
       </c>
       <c r="W8" t="n">
-        <v>134.0817409166647</v>
+        <v>120.3328225251016</v>
       </c>
       <c r="X8" t="n">
-        <v>134.0817409166647</v>
+        <v>120.3328225251016</v>
       </c>
       <c r="Y8" t="n">
-        <v>134.0817409166647</v>
+        <v>120.3328225251016</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>8.32123414070713</v>
       </c>
       <c r="J9" t="n">
-        <v>8.32123414070713</v>
+        <v>34.13631189120423</v>
       </c>
       <c r="K9" t="n">
-        <v>59.03062809423427</v>
+        <v>42.33832959979342</v>
       </c>
       <c r="L9" t="n">
-        <v>116.3817942504399</v>
+        <v>99.68949575599903</v>
       </c>
       <c r="M9" t="n">
         <v>202.6647682472498</v>
@@ -4905,25 +4905,25 @@
         <v>416.0617070353564</v>
       </c>
       <c r="R9" t="n">
-        <v>416.0617070353564</v>
+        <v>371.644725708099</v>
       </c>
       <c r="S9" t="n">
-        <v>416.0617070353564</v>
+        <v>323.5194970462802</v>
       </c>
       <c r="T9" t="n">
-        <v>416.0617070353564</v>
+        <v>323.5194970462802</v>
       </c>
       <c r="U9" t="n">
-        <v>416.0617070353564</v>
+        <v>218.4534094110892</v>
       </c>
       <c r="V9" t="n">
-        <v>323.5194970462802</v>
+        <v>218.4534094110892</v>
       </c>
       <c r="W9" t="n">
-        <v>323.5194970462802</v>
+        <v>218.4534094110892</v>
       </c>
       <c r="X9" t="n">
-        <v>218.4534094110892</v>
+        <v>113.3873217758982</v>
       </c>
       <c r="Y9" t="n">
         <v>113.3873217758982</v>
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>288.1326001202925</v>
+        <v>8.32123414070713</v>
       </c>
       <c r="C10" t="n">
-        <v>183.0665124851014</v>
+        <v>8.32123414070713</v>
       </c>
       <c r="D10" t="n">
-        <v>153.5102799008916</v>
+        <v>8.32123414070713</v>
       </c>
       <c r="E10" t="n">
-        <v>48.44419226570064</v>
+        <v>8.32123414070713</v>
       </c>
       <c r="F10" t="n">
-        <v>48.44419226570064</v>
+        <v>8.32123414070713</v>
       </c>
       <c r="G10" t="n">
-        <v>48.44419226570064</v>
+        <v>8.32123414070713</v>
       </c>
       <c r="H10" t="n">
-        <v>48.44419226570064</v>
+        <v>8.32123414070713</v>
       </c>
       <c r="I10" t="n">
-        <v>48.44419226570064</v>
+        <v>8.32123414070713</v>
       </c>
       <c r="J10" t="n">
         <v>8.32123414070713</v>
       </c>
       <c r="K10" t="n">
-        <v>8.32123414070713</v>
+        <v>73.53581884437472</v>
       </c>
       <c r="L10" t="n">
-        <v>111.2965066319579</v>
+        <v>73.53581884437472</v>
       </c>
       <c r="M10" t="n">
-        <v>214.2717791232086</v>
+        <v>121.9661535639733</v>
       </c>
       <c r="N10" t="n">
-        <v>313.0864345441057</v>
+        <v>224.941426055224</v>
       </c>
       <c r="O10" t="n">
-        <v>416.0617070353564</v>
+        <v>327.9166985464747</v>
       </c>
       <c r="P10" t="n">
         <v>416.0617070353564</v>
@@ -4993,19 +4993,19 @@
         <v>288.1326001202925</v>
       </c>
       <c r="U10" t="n">
-        <v>288.1326001202925</v>
+        <v>183.0665124851014</v>
       </c>
       <c r="V10" t="n">
-        <v>288.1326001202925</v>
+        <v>78.00042484991042</v>
       </c>
       <c r="W10" t="n">
-        <v>288.1326001202925</v>
+        <v>78.00042484991042</v>
       </c>
       <c r="X10" t="n">
-        <v>288.1326001202925</v>
+        <v>78.00042484991042</v>
       </c>
       <c r="Y10" t="n">
-        <v>288.1326001202925</v>
+        <v>78.00042484991042</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,19 +5027,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,16 +5264,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
@@ -5282,28 +5282,28 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,19 +5349,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
         <v>949.9304447718132</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278211</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278211</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>408.9258559154853</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,7 +5695,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015912</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>740.690960158061</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,28 +5762,28 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1368.15426255076</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>636.6680198981032</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>467.7318369701962</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1267.098614769891</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>818.3164847283431</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362682</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -5993,43 +5993,43 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400702</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111716</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557281</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278211</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>408.9258559154853</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330921</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330921</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1902.510931370363</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1647.826443164476</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229498</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>909.627143085968</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
@@ -6470,7 +6470,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,34 +6479,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O30" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400702</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400702</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400702</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>365.940507157677</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330921</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6689,58 +6689,58 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>549.6145409888045</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888045</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888045</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888045</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>952.0555849625746</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>731.2630058190443</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="38">
@@ -7169,19 +7169,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7491,22 +7491,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714573</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7652,22 +7652,22 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>217.342912363454</v>
+        <v>211.5173807891274</v>
       </c>
       <c r="L2" t="n">
-        <v>228.7108053025997</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M2" t="n">
-        <v>214.9613358234932</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>204.2917325281876</v>
+        <v>219.453681055507</v>
       </c>
       <c r="O2" t="n">
-        <v>206.3768508508745</v>
+        <v>221.538799378194</v>
       </c>
       <c r="P2" t="n">
         <v>226.149311848474</v>
@@ -8058,13 +8058,13 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>140.8394464083196</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>137.3604083836059</v>
       </c>
       <c r="M3" t="n">
-        <v>138.2093953574145</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
         <v>126.2993043714169</v>
@@ -8073,7 +8073,7 @@
         <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>134.7518686851471</v>
       </c>
       <c r="Q3" t="n">
         <v>145.5280738211766</v>
@@ -8143,13 +8143,13 @@
         <v>140.6574822216631</v>
       </c>
       <c r="M4" t="n">
-        <v>144.1881980719757</v>
+        <v>138.658955275242</v>
       </c>
       <c r="N4" t="n">
         <v>133.1833473911586</v>
       </c>
       <c r="O4" t="n">
-        <v>139.1628415322489</v>
+        <v>144.6920843289826</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8219,22 +8219,22 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>222.8852737282731</v>
+        <v>228.7108053025997</v>
       </c>
       <c r="M5" t="n">
-        <v>220.7868673978199</v>
+        <v>220.1742634169181</v>
       </c>
       <c r="N5" t="n">
-        <v>219.453681055507</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>221.538799378194</v>
       </c>
       <c r="P5" t="n">
         <v>226.149311848474</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>140.8394464083196</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1984598562864</v>
+        <v>137.3604083836059</v>
       </c>
       <c r="M6" t="n">
-        <v>138.2093953574145</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>126.9119083523187</v>
+        <v>119.9289808188948</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8526396814495</v>
+        <v>139.8355672148734</v>
       </c>
       <c r="P6" t="n">
         <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>145.5280738211766</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,13 +8380,13 @@
         <v>140.6574822216631</v>
       </c>
       <c r="M7" t="n">
-        <v>144.1881980719757</v>
+        <v>138.658955275242</v>
       </c>
       <c r="N7" t="n">
         <v>133.1833473911586</v>
       </c>
       <c r="O7" t="n">
-        <v>139.1628415322489</v>
+        <v>144.6920843289826</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8456,7 +8456,7 @@
         <v>4.94909192639949</v>
       </c>
       <c r="L8" t="n">
-        <v>72.88070599497036</v>
+        <v>39.21331846017597</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.0114591082882</v>
+        <v>143.6788466430826</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>41.3416127743711</v>
+        <v>67.41744888598433</v>
       </c>
       <c r="K9" t="n">
-        <v>42.93674368175551</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>16.86090757014227</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>40.87044846216001</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>126.1076531206117</v>
+        <v>22.09222636177262</v>
       </c>
       <c r="M10" t="n">
-        <v>124.0173869348075</v>
+        <v>68.9214901957649</v>
       </c>
       <c r="N10" t="n">
-        <v>111.4022466685016</v>
+        <v>115.6048901739093</v>
       </c>
       <c r="O10" t="n">
         <v>135.2384436656255</v>
       </c>
       <c r="P10" t="n">
-        <v>45.97120120405954</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="R26" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.146346862790068e-12</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>35.12774237125669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>44.73700564187345</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>121.5862749664529</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405092</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>211.9838267405012</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659236</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>35.40333084624652</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>714182.5462739156</v>
+        <v>714182.5462739157</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312485</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287551</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38828.0597816594</v>
+        <v>38828.05978165939</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,28 +26372,28 @@
         <v>357912.3110366673</v>
       </c>
       <c r="E3" t="n">
-        <v>1080121.758724496</v>
+        <v>1080121.758724495</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>8.129336565339467e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3967.032860481986</v>
+        <v>3967.032860482105</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22488.01565909354</v>
+        <v>22488.01565909339</v>
       </c>
       <c r="M3" t="n">
         <v>266322.5358175751</v>
@@ -26424,40 +26424,40 @@
         <v>310629.0408162415</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744293</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744293</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744166</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744259</v>
+        <v>8727.256391744166</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744269</v>
+        <v>8727.256391744182</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744269</v>
+        <v>8727.256391744133</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744269</v>
+        <v>8727.256391744171</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744269</v>
+        <v>8727.256391744178</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744259</v>
+        <v>8727.256391744257</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744269</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238566.9083561303</v>
+        <v>238566.9083561306</v>
       </c>
       <c r="C6" t="n">
-        <v>277394.9681377895</v>
+        <v>277394.9681377898</v>
       </c>
       <c r="D6" t="n">
-        <v>746.9167069734904</v>
+        <v>746.9167069737232</v>
       </c>
       <c r="E6" t="n">
-        <v>-483718.2702113917</v>
+        <v>-483753.0081368267</v>
       </c>
       <c r="F6" t="n">
-        <v>596403.4885131037</v>
+        <v>596368.7505876682</v>
       </c>
       <c r="G6" t="n">
-        <v>596403.488513104</v>
+        <v>596368.7505876687</v>
       </c>
       <c r="H6" t="n">
-        <v>596403.4885131036</v>
+        <v>596368.750587669</v>
       </c>
       <c r="I6" t="n">
-        <v>596403.4885131042</v>
+        <v>596368.7505876687</v>
       </c>
       <c r="J6" t="n">
-        <v>592436.4556526222</v>
+        <v>592401.7177271862</v>
       </c>
       <c r="K6" t="n">
-        <v>596403.4885131039</v>
+        <v>596368.7505876683</v>
       </c>
       <c r="L6" t="n">
-        <v>573915.4728540104</v>
+        <v>573880.7349285753</v>
       </c>
       <c r="M6" t="n">
-        <v>330080.9526955289</v>
+        <v>330046.2147700931</v>
       </c>
       <c r="N6" t="n">
-        <v>596403.4885131042</v>
+        <v>596368.7505876683</v>
       </c>
       <c r="O6" t="n">
-        <v>596403.4885131038</v>
+        <v>596368.7505876682</v>
       </c>
       <c r="P6" t="n">
-        <v>596403.4885131043</v>
+        <v>596368.7505876683</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="C3" t="n">
         <v>35.02126071912533</v>
@@ -26796,31 +26796,31 @@
         <v>104.0154267588391</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.082211243696152e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>385.6916807684254</v>
       </c>
       <c r="E3" t="n">
-        <v>947.2625588541232</v>
+        <v>947.262558854123</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.85347823151963</v>
+        <v>88.85347823151965</v>
       </c>
       <c r="E4" t="n">
         <v>1068.692861340809</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.965991048521249e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.16194852731951</v>
+        <v>15.16194852731996</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823151963</v>
+        <v>88.85347823151942</v>
       </c>
       <c r="M4" t="n">
         <v>1068.692861340809</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823151963</v>
+        <v>88.85347823151965</v>
       </c>
       <c r="M4" t="n">
         <v>1068.692861340809</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.965991048521249e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.5718931361611</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>393.5214014788485</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>125.8633331579598</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>190.6498919990783</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>244.8557912676597</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>312.5903099428155</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>132.2831170373193</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>123.9135441508763</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>71.64112869536794</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>80.3188953730601</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>155.1220240940137</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>238.3403388980566</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>190.5207472499849</v>
       </c>
     </row>
     <row r="4">
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>132.8496205020987</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>130.2590994956118</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.71188435578699</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>159.2918501364599</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>212.5138049577163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>272.9609403794588</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>210.5477068617177</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27634,7 +27634,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>189.8861735903263</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>125.8633331579598</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
@@ -27670,13 +27670,13 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>236.1724412614918</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>334.0790201900936</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,16 +27695,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>157.5465504609963</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>132.2831170373193</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>142.4831319280815</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>131.7145681305209</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>80.3188953730601</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>155.1220240940137</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
@@ -27752,13 +27752,13 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.6386386221058</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>192.4183409406145</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>133.4535244908929</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>131.2720141192497</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>131.8367058784608</v>
+        <v>132.0664037600683</v>
       </c>
       <c r="G7" t="n">
         <v>167.9278262653587</v>
@@ -27798,7 +27798,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>65.71188435578699</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9160118599466</v>
+        <v>207.7540633326271</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>212.5138049577163</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>277.9149433134227</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>309.5960024488083</v>
       </c>
       <c r="H8" t="n">
         <v>322.1536909117094</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>43.62747247092912</v>
       </c>
       <c r="S8" t="n">
-        <v>170.4793815293707</v>
+        <v>85.73863938189665</v>
       </c>
       <c r="T8" t="n">
-        <v>215.6921474481042</v>
+        <v>111.6767206892651</v>
       </c>
       <c r="U8" t="n">
-        <v>223.70850777434</v>
+        <v>251.2103482432375</v>
       </c>
       <c r="V8" t="n">
-        <v>223.7368317112958</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>245.2255419585739</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.97281151398492</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>154.874498394406</v>
+        <v>107.2305220192054</v>
       </c>
       <c r="T9" t="n">
         <v>196.5172268719248</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8818472307643</v>
+        <v>121.8664204719252</v>
       </c>
       <c r="V9" t="n">
-        <v>141.1837992602398</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +27998,7 @@
         <v>101.7575584446384</v>
       </c>
       <c r="Y9" t="n">
-        <v>101.6672690184652</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>110.849581379826</v>
       </c>
       <c r="C10" t="n">
-        <v>63.23139433978872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>119.3548027598447</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>42.41853588773006</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>132.6354190183924</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>39.72172854374357</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>224.7040306987872</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2776477556889</v>
+        <v>182.2622209968497</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>148.1222165649889</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28804,19 +28804,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-3.922992498123405e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29281,16 +29281,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-2.593199165810433e-12</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29326,13 +29326,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>-1.236039841907248e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-1.082211243696152e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-2.368521610171397e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -31045,16 +31045,16 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M2" t="n">
         <v>24.72131435677232</v>
@@ -31072,16 +31072,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335884</v>
@@ -31139,7 +31139,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31148,19 +31148,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,43 +31197,43 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
         <v>0.2698359432457196</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302374</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038093</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,34 +32546,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>638.9422653403551</v>
       </c>
       <c r="P21" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>361.5531172119652</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948329</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33257,34 +33257,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P30" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33494,13 +33494,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>526.2989357561996</v>
+        <v>472.0729312464047</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,7 +33740,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>553.3925020622929</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33974,16 +33974,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33995,7 +33995,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>289.7537444526271</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>473.8581708471796</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,19 +34442,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>9.336416952992847</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9.336416952992847</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424821</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>14.54934454641767</v>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="Q3" t="n">
         <v>15.16194852731947</v>
@@ -34863,16 +34863,16 @@
         <v>15.16194852731947</v>
       </c>
       <c r="M4" t="n">
-        <v>15.16194852731947</v>
+        <v>9.632705730585775</v>
       </c>
       <c r="N4" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="O4" t="n">
-        <v>9.632705730585771</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831899</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>9.336416952992847</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M5" t="n">
+        <v>14.54934454641767</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.179020993895534</v>
+      </c>
+      <c r="O6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8.179020993895531</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,13 +35100,13 @@
         <v>15.16194852731947</v>
       </c>
       <c r="M7" t="n">
-        <v>15.16194852731947</v>
+        <v>9.632705730585775</v>
       </c>
       <c r="N7" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="O7" t="n">
-        <v>9.632705730585771</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="P7" t="n">
         <v>4.916638815831901</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>104.0154267588391</v>
+        <v>70.34803922404473</v>
       </c>
       <c r="M8" t="n">
         <v>66.63270661986658</v>
@@ -35191,7 +35191,7 @@
         <v>11.97925299683763</v>
       </c>
       <c r="Q8" t="n">
-        <v>70.34803922404477</v>
+        <v>104.0154267588391</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>26.07583611161323</v>
       </c>
       <c r="K9" t="n">
-        <v>51.22161005406782</v>
+        <v>8.284866372312308</v>
       </c>
       <c r="L9" t="n">
         <v>57.93047086485416</v>
       </c>
       <c r="M9" t="n">
-        <v>87.15451918869684</v>
+        <v>104.0154267588391</v>
       </c>
       <c r="N9" t="n">
         <v>104.0154267588391</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>65.87331788249251</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>48.91953001979651</v>
+      </c>
+      <c r="N10" t="n">
         <v>104.0154267588391</v>
-      </c>
-      <c r="M10" t="n">
-        <v>104.0154267588391</v>
-      </c>
-      <c r="N10" t="n">
-        <v>99.81278325343145</v>
       </c>
       <c r="O10" t="n">
         <v>104.0154267588391</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>89.03536210998156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579301</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35650,7 +35650,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M14" t="n">
         <v>735.300110790295</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204761</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36051,16 +36051,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>496.3460208959107</v>
       </c>
       <c r="P21" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
         <v>735.300110790295</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>219.4190832899469</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,13 +36452,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281453</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P30" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>394.9572236728663</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394599</v>
+        <v>414.8381222824187</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,13 +37400,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>151.9123054782681</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38020,7 +38020,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
         <v>735.300110790295</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38111,13 +38111,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
